--- a/Documentación/Tablas/9-2 Especificación de Tests.xlsx
+++ b/Documentación/Tablas/9-2 Especificación de Tests.xlsx
@@ -3,12 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD6784E-4ABE-4A3F-A096-662BAB6F78A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27143A60-821B-4058-A2F7-0524E4E79827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="8.2 Especificación de tests" sheetId="2" r:id="rId1"/>
+    <sheet name="8.2.1 Tests básicos" sheetId="3" r:id="rId2"/>
+    <sheet name="8.2.2 Test de funcionalidad" sheetId="4" r:id="rId3"/>
+    <sheet name="8.2.3 Test de comunicación" sheetId="6" r:id="rId4"/>
+    <sheet name="8.2.2 Test mecánicos" sheetId="7" r:id="rId5"/>
+    <sheet name="8.2.2 Test de integridad de dat" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
   <si>
     <t>Descripción</t>
   </si>
@@ -51,75 +56,12 @@
     <t>BP-05</t>
   </si>
   <si>
-    <t>T-02</t>
-  </si>
-  <si>
-    <t>Test-ID</t>
-  </si>
-  <si>
     <t>Dependencia</t>
   </si>
   <si>
     <t>Banco de pruebas</t>
   </si>
   <si>
-    <t>T-01</t>
-  </si>
-  <si>
-    <t>T-03</t>
-  </si>
-  <si>
-    <t>T-04</t>
-  </si>
-  <si>
-    <t>T-05</t>
-  </si>
-  <si>
-    <t>T-06</t>
-  </si>
-  <si>
-    <t>T-07</t>
-  </si>
-  <si>
-    <t>T-08</t>
-  </si>
-  <si>
-    <t>T-09</t>
-  </si>
-  <si>
-    <t>T-10</t>
-  </si>
-  <si>
-    <t>T-11</t>
-  </si>
-  <si>
-    <t>T-12</t>
-  </si>
-  <si>
-    <t>T-13</t>
-  </si>
-  <si>
-    <t>T-14</t>
-  </si>
-  <si>
-    <t>T-15</t>
-  </si>
-  <si>
-    <t>T-16</t>
-  </si>
-  <si>
-    <t>T-17</t>
-  </si>
-  <si>
-    <t>T-18</t>
-  </si>
-  <si>
-    <t>T-19</t>
-  </si>
-  <si>
-    <t>Validación endendido del dispositivo.</t>
-  </si>
-  <si>
     <t>Validación de dimensiones totales.</t>
   </si>
   <si>
@@ -132,9 +74,6 @@
     <t>Adquisición de hora.</t>
   </si>
   <si>
-    <t>Adquisición de medición de luz ambiente.</t>
-  </si>
-  <si>
     <t>Medición de corriente durante adquisición de datos.</t>
   </si>
   <si>
@@ -175,6 +114,345 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Validación encendido del dispositivo.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>T-BASIC-01</t>
+  </si>
+  <si>
+    <t>T-BASIC-02</t>
+  </si>
+  <si>
+    <t>T-INT-FUNC-01</t>
+  </si>
+  <si>
+    <t>T-INT-FUNC-02</t>
+  </si>
+  <si>
+    <t>T-INT-FUNC-03</t>
+  </si>
+  <si>
+    <t>T-INT-FUNC-04</t>
+  </si>
+  <si>
+    <t>T-INT-FUNC-05</t>
+  </si>
+  <si>
+    <t>T-INT-FUNC-06</t>
+  </si>
+  <si>
+    <t>T-INT-FUNC-07</t>
+  </si>
+  <si>
+    <t>T-INT-COM-01</t>
+  </si>
+  <si>
+    <t>T-INT-DIM-01</t>
+  </si>
+  <si>
+    <t>T-INT-DIM-02</t>
+  </si>
+  <si>
+    <t>T-INT-COM-02</t>
+  </si>
+  <si>
+    <t>T-INT-FUNC-09</t>
+  </si>
+  <si>
+    <t>T-INT-MEC-01</t>
+  </si>
+  <si>
+    <t>T-INT-MEC-02</t>
+  </si>
+  <si>
+    <t>T-INT-MEC-03</t>
+  </si>
+  <si>
+    <t>T-INT-COM-01
+T-INT-DIM-01
+T-INT-DIM-02</t>
+  </si>
+  <si>
+    <t>T-INT-DATA-02</t>
+  </si>
+  <si>
+    <t>T-INT-DATA-01</t>
+  </si>
+  <si>
+    <t>ID
+Aplicabilidad</t>
+  </si>
+  <si>
+    <t>El dispositivo debe parpadear su LED interno, y el programador no debe devolver errores de programación.</t>
+  </si>
+  <si>
+    <t>La fuente no debe alcanzar su limitación de corriente, y el dispositivo parpadea brevemente su LED interno. El parpadeo ocurre solo inicialmente y no vuelve a suceder mientras se mantenga energizado.</t>
+  </si>
+  <si>
+    <t>T-INT-DATA-03</t>
+  </si>
+  <si>
+    <t>El dispositivo tiene un error absoluto menor a 2°C, con un período transitorio menor a 10 min.</t>
+  </si>
+  <si>
+    <t>El dispositivo devuelve el horario de los eventos transcurridos durante las pruebas con un error máximo de 1min</t>
+  </si>
+  <si>
+    <t>El dispositivo detecta correctamente las transiciones entre agua salada y aire.</t>
+  </si>
+  <si>
+    <t>La corriente de entrada durante la adquisición de datos no supera 1mA.</t>
+  </si>
+  <si>
+    <t>La corriente de entrada durante el guardado de datos no supera los 500uA.</t>
+  </si>
+  <si>
+    <t>La corriente de entrada durante modo de bajo consumo no supera 1uA.</t>
+  </si>
+  <si>
+    <t>El dispositivo sigue energizado luego de la prueba y sus datos son válidos.</t>
+  </si>
+  <si>
+    <t>Los datos registrados por el dispositivo son válidos y se reciben en la consola de comandos correctamente.</t>
+  </si>
+  <si>
+    <t>El dispositivo tiene dimensiones comprendidas dentro de un prisma de 40mm de ancho, 40mm de largo y 20mm de profundidad.</t>
+  </si>
+  <si>
+    <t>El dispositivo tiene un peso menor a 10g, incluyendo circuito electrónico, fuente de energía y recubrimiento.</t>
+  </si>
+  <si>
+    <t>El dispositivo sigue parpadeando el LED interno, y al comunicarse no se encuentran errores de comunicación.</t>
+  </si>
+  <si>
+    <t>La PenGUI reconoce al dispositivo y recupera correctamente su número de identificación.</t>
+  </si>
+  <si>
+    <t>Los datos recuperados y visualizados coinciden con los datos registrados en pruebas anteriores.</t>
+  </si>
+  <si>
+    <t>Los datos importados y visualizados coinciden con los datos registrados en pruebas anteriores.</t>
+  </si>
+  <si>
+    <t>\tabitem Conectar el dispositivo al programador mediante el conector de programación.
+\tabitem Programar el dispositivo.
+\tabitem Observar al dispositivo durante la programación.</t>
+  </si>
+  <si>
+    <t>\tabitem Cargar el programa de adquisición de datos al dispositivo.
+\tabitem Asegurar el dispositivo al termómetro calibrado.
+\tabitem Conectar al dispositivo a la fuente de alimentación programada para 3.3V con limitación de 100mA.
+\tabitem Guardar un registro con la temperatura medida por el termómetro.
+\tabitem Dejar que pasen al menos 5 horas.
+\tabitem Durante la etapa de recuperado de datos, comparar la temperatura medida con la registrada por el termómetro.</t>
+  </si>
+  <si>
+    <t>\tabitem Cargar el programa de adquisición de datos al dispositivo.
+\tabitem Conectar al dispositivo a la fuente de alimentación programada para 3.3V con limitación de 100mA.
+\tabitem Guardar un registro de la hora en la que se energiza el dispositivo.
+\tabitem Guardar un registro de la hora en la que ocurren los eventos de las pruebas T-INT-FUNC-01 y T-INT-FUNC-02.
+\tabitem Durante la etapa de recuperado de datos, comparar el horario de los eventos registrados por el dispositivo y los registrados de forma externa.</t>
+  </si>
+  <si>
+    <t>\tabitem Cargar el programa de adquisición de datos al dispositivo.
+\tabitem Conectar al dispositivo a la fuente de alimentación programada para 3.3V con limitación de 100mA.
+\tabitem Conectar cables a los pines de sensado del dispositivo.
+\tabitem Sumergir los cables en el recipiente con agua salada en inervalos aleatorios.
+\tabitem Registrar los horarios de transición entre mojado y seco.
+\tabitem Durante la etapa de recuperado de datos, comparar el horario de los eventos registrados por el dispositivo y los registrados de forma externa.</t>
+  </si>
+  <si>
+    <t>\tabitem Cargar el programa de adquisición de datos al dispositivo.
+\tabitem Conectar al dispositivo a la fuente de alimentación programada para 3.3V con limitación de 100mA.
+\tabitem Conectar un amperímetro entre la fuente y el dispositivo.
+\tabitem Observar el consumo de corriente durante la adquisición de datos.</t>
+  </si>
+  <si>
+    <t>\tabitem Cargar el programa de adquisición de datos al dispositivo.
+\tabitem Conectar al dispositivo a la fuente de alimentación programada para 3.3V con limitación de 100mA.
+\tabitem Conectar un amperímetro entre la fuente y el dispositivo.
+\tabitem Observar el consumo de corriente durante el guardad de datos.</t>
+  </si>
+  <si>
+    <t>\tabitem Cargar el programa de adquisición de datos al dispositivo.
+\tabitem Conectar al dispositivo a la fuente de alimentación programada para 3.3V con limitación de 100mA.
+\tabitem Conectar un amperímetro entre la fuente y el dispositivo.
+\tabitem Observar el consumo de corriente durante el modo de bajo consumo.</t>
+  </si>
+  <si>
+    <t>\tabitem Cargar el programa de adquisición de datos en tiempo acelerado.
+\tabitem El programa simula la adquisición de datos de 60 días en 24 horas.
+\tabitem Conectar dos pilas nuevas al dispositivo.
+\tabitem Dejar que pasen 24 horas.</t>
+  </si>
+  <si>
+    <t>\tabitem Utilizar el dispositivo luego de su baño en resina, una vez que está endurecido y fuera del molde.
+\tabitem Utilizar un elemento de medición con precisión igual o mejor que 0.1mm.
+\tabitem Medir ancho, alto y profundidad del dispositivo con su recubrimiento, sin contar los conectores expuestos de medición y alimentación externa.</t>
+  </si>
+  <si>
+    <t>\tabitem Utilizar el dispositivo luego de su baño en resina, una vez que está endurecido y fuera del molde.
+\tabitem Utilizar una balanza digital con precisión igual o mejor que 0.1g.
+\tabitem Medir el peso del dispositvo final.</t>
+  </si>
+  <si>
+    <t>\tabitem Utilizar el dispositivo luego de su baño en resina, una vez que está endurecido y fuera del molde.
+\tabitem Utilizar el programa que hace parpadear el LED interno.
+\tabitem Sumergir el dispositivo en un contenedor con agua salada por al menos una hora.
+\tabitem Retirar el dispositivo.
+\tabitem Comprobar el estado del LED interno.
+\tabitem Comunicarse con el dispositivo.</t>
+  </si>
+  <si>
+    <t>\tabitem Utilizar el dispositivo luego de su baño en resina, una vez que está endurecido y fuera del molde.
+\tabitem Utilizar el programa que hace parpadear el LED interno.
+\tabitem Sumergir el dispositivo en un contenedor con agua salada a una temperatura igual o menor a 3°C por al menos una hora.
+\tabitem Retirar el dispositivo.
+\tabitem Comprobar el estado del LED interno.
+\tabitem Comunicarse con el dispositivo.</t>
+  </si>
+  <si>
+    <t>\tabitem Utilizar el dispositivo luego de su baño en resina, una vez que está endurecido y fuera del molde.
+\tabitem Utilizar el programa que hace parpadear el LED interno.
+\tabitem Sumergir el dispositivo en una cámara de presión capaz de generar un mínimo de 10bar de presión.
+\tabitem Llenar la cámara de presión con agua salada.
+\tabitem Utilizar un manómetro con presición igual o mejor que 0.1bar
+\tabitem Sellar la cámara.
+\tabitem Elevar la presión hasta 10bar en menos de 10 segundos y mantenerla durante una hora.
+\tabitem Despresurizar la cámara en menos de 10 segundos.
+\tabitem Retirar el dispositivo.
+\tabitem Comprobar el estado del LED interno.
+\tabitem Comunicarse con el dispositivo.</t>
+  </si>
+  <si>
+    <t>\tabitem Utilizar el dispositivo luego de su baño en resina, una vez que está endurecido y fuera del molde.
+\tabitem Utilizar los registros de eventos de las pruebas anteriores.
+\tabitem Conectar el dispositivo a la base.
+\tabitem Conectar la base a la computadora corriendo la PenGUI.</t>
+  </si>
+  <si>
+    <t>\tabitem Utilizar el dispositivo conectado a la base, conectada a la computadora corriendo la PenGUI.
+\tabitem Presionar el botón para visualizar los datos crudos en la PenGUI.</t>
+  </si>
+  <si>
+    <t>\tabitem Utilizar el dispositivo conectado a la base, conectada a la computadora corriendo la PenGUI.
+\tabitem Presionar el botón descargar los datos crudos en la PenGUI.
+\tabitem Importar los datos descargados en la PenGUI y visualizarlos</t>
+  </si>
+  <si>
+    <t>Criterio de
+aceptación</t>
+  </si>
+  <si>
+    <t>\tabitem Conectar el dispositivo a la fuente de alimentación regulada mediante los conectores utilizados para la batería.
+\tabitem Programar la fuente a 3.3V con limitación de 100mA.
+\tabitem Encender la fuente de alimentación.
+\tabitem Observar al dispositivo al encender la fuente.</t>
+  </si>
+  <si>
+    <t>T-BASIC-01
+BP-01
+P</t>
+  </si>
+  <si>
+    <t>T-BASIC-02
+BP-01
+P-F</t>
+  </si>
+  <si>
+    <t>T-INT-FUNC-01
+BP-01
+P-F</t>
+  </si>
+  <si>
+    <t>T-INT-FUNC-02
+BP-01
+P-F</t>
+  </si>
+  <si>
+    <t>T-INT-FUNC-03
+BP-01
+P-F</t>
+  </si>
+  <si>
+    <t>T-INT-FUNC-04
+BP-01
+P</t>
+  </si>
+  <si>
+    <t>T-INT-FUNC-05
+BP-01
+P</t>
+  </si>
+  <si>
+    <t>T-INT-FUNC-06
+BP-01
+P</t>
+  </si>
+  <si>
+    <t>T-INT-FUNC-07
+BP-02
+P</t>
+  </si>
+  <si>
+    <t>T-INT-COM-01
+BP-02
+P-F</t>
+  </si>
+  <si>
+    <t>T-INT-DIM-01
+BP-03
+P-F</t>
+  </si>
+  <si>
+    <t>T-INT-DIM-02
+BP-03
+P-F</t>
+  </si>
+  <si>
+    <t>T-INT-MEC-01
+BP-04
+P-F</t>
+  </si>
+  <si>
+    <t>T-INT-MEC-02
+BP-04
+P-F</t>
+  </si>
+  <si>
+    <t>T-INT-MEC-03
+BP-04
+P-F</t>
+  </si>
+  <si>
+    <t>T-INT-DATA-01
+BP-05
+P-F</t>
+  </si>
+  <si>
+    <t>T-INT-DATA-02
+BP-05
+P-F</t>
+  </si>
+  <si>
+    <t>T-INT-DATA-03
+BP-05
+P-F</t>
+  </si>
+  <si>
+    <t>\tabitem Cargar el programa de adquisición de datos al dispositivo.
+\tabitem Asegurarse que el dispositivo este conectado a su batería mediante los conectores en la placa.
+\tabitem Utilizar el registro de eventos durante las pruebas anteriores.
+\tabitem Conectar cables a los conectores de comunicación y alimentación externa.
+\tabitem Conectar los cables a la base.
+\tabitem Conectar la base a una computadora y abrir el puerto serie correspondiente a la base.
+\tabitem Interactuar con la interfaz de obtención de datos propia del dispositivo.
+\tabitem Confirmar la recepción de datos.</t>
   </si>
 </sst>
 </file>
@@ -225,7 +503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -248,12 +526,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -269,6 +584,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -556,257 +917,662 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAD9908-3DB8-46A4-94BE-5CD81246CF66}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D17" sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="73.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>4</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C4:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D20"/>
+  <mergeCells count="7">
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE40824-DFDF-455A-BDF5-531A3A867112}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="82.28515625" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518719A7-AA25-46DF-AF1A-069644F11A5A}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="84.7109375" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0611DCA8-B494-4BF5-A555-ED9E5089E1A0}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="84.7109375" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="21"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="21"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="21"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="21"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D352AE-9B29-452D-8E0E-2F5494852E5F}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="84.7109375" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2780F216-54B4-4021-B76B-7E398446177D}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="84.7109375" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentación/Tablas/9-2 Especificación de Tests.xlsx
+++ b/Documentación/Tablas/9-2 Especificación de Tests.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27143A60-821B-4058-A2F7-0524E4E79827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623ADBA4-A8DB-460C-96D2-72C4A9BCF639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8.2 Especificación de tests" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
   <si>
     <t>Descripción</t>
   </si>
@@ -158,12 +158,6 @@
     <t>T-INT-DIM-02</t>
   </si>
   <si>
-    <t>T-INT-COM-02</t>
-  </si>
-  <si>
-    <t>T-INT-FUNC-09</t>
-  </si>
-  <si>
     <t>T-INT-MEC-01</t>
   </si>
   <si>
@@ -171,11 +165,6 @@
   </si>
   <si>
     <t>T-INT-MEC-03</t>
-  </si>
-  <si>
-    <t>T-INT-COM-01
-T-INT-DIM-01
-T-INT-DIM-02</t>
   </si>
   <si>
     <t>T-INT-DATA-02</t>
@@ -453,6 +442,25 @@
 \tabitem Conectar la base a una computadora y abrir el puerto serie correspondiente a la base.
 \tabitem Interactuar con la interfaz de obtención de datos propia del dispositivo.
 \tabitem Confirmar la recepción de datos.</t>
+  </si>
+  <si>
+    <t>T-INT-FUNC-01
+T-INT-FUNC-02
+T-INT-FUNC-03</t>
+  </si>
+  <si>
+    <t>T-INT-FUNC-04
+T-INT-FUNC-05
+T-INT-FUNC-06</t>
+  </si>
+  <si>
+    <t>T-INT-DIM-01
+T-INT-DIM-02</t>
+  </si>
+  <si>
+    <t>T-INT-MEC-01
+T-INT-MEC-02
+T-INT-MEC-03</t>
   </si>
 </sst>
 </file>
@@ -568,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -582,21 +590,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,20 +636,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -919,7 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAD9908-3DB8-46A4-94BE-5CD81246CF66}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D17" sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
@@ -955,7 +962,7 @@
       <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
     </row>
@@ -969,7 +976,7 @@
       <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -978,10 +985,10 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -990,8 +997,8 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1000,8 +1007,8 @@
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1010,10 +1017,10 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="14"/>
+      <c r="C7" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1022,10 +1029,8 @@
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1034,22 +1039,20 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="16"/>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1063,7 +1066,7 @@
       <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1075,7 +1078,7 @@
       <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1087,84 +1090,84 @@
         <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="D19" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D2:D9"/>
@@ -1172,6 +1175,7 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1194,36 +1198,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>48</v>
+      <c r="A1" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>82</v>
+      <c r="C1" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1247,91 +1251,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>48</v>
+      <c r="A1" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>82</v>
+      <c r="C1" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>52</v>
+        <v>83</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>53</v>
+        <v>84</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>54</v>
+        <v>85</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>55</v>
+        <v>86</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>56</v>
+        <v>87</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>58</v>
+        <v>89</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1341,7 +1345,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0611DCA8-B494-4BF5-A555-ED9E5089E1A0}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1355,66 +1359,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>48</v>
+      <c r="A1" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>82</v>
+      <c r="C1" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>59</v>
+        <v>99</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1437,73 +1431,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>48</v>
+      <c r="A1" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>82</v>
+      <c r="C1" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>60</v>
+        <v>91</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>62</v>
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>62</v>
+        <v>74</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="8"/>
+      <c r="C7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1514,7 +1508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2780F216-54B4-4021-B76B-7E398446177D}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -1526,51 +1520,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>48</v>
+      <c r="A1" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>82</v>
+      <c r="C1" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>63</v>
+        <v>96</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="8"/>
+      <c r="C5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentación/Tablas/9-2 Especificación de Tests.xlsx
+++ b/Documentación/Tablas/9-2 Especificación de Tests.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623ADBA4-A8DB-460C-96D2-72C4A9BCF639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35028AAC-018D-410A-83FE-13CD9AEE4FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8.2 Especificación de tests" sheetId="2" r:id="rId1"/>
@@ -198,13 +198,7 @@
     <t>La corriente de entrada durante la adquisición de datos no supera 1mA.</t>
   </si>
   <si>
-    <t>La corriente de entrada durante el guardado de datos no supera los 500uA.</t>
-  </si>
-  <si>
     <t>La corriente de entrada durante modo de bajo consumo no supera 1uA.</t>
-  </si>
-  <si>
-    <t>El dispositivo sigue energizado luego de la prueba y sus datos son válidos.</t>
   </si>
   <si>
     <t>Los datos registrados por el dispositivo son válidos y se reciben en la consola de comandos correctamente.</t>
@@ -274,12 +268,6 @@
 \tabitem Observar el consumo de corriente durante el modo de bajo consumo.</t>
   </si>
   <si>
-    <t>\tabitem Cargar el programa de adquisición de datos en tiempo acelerado.
-\tabitem El programa simula la adquisición de datos de 60 días en 24 horas.
-\tabitem Conectar dos pilas nuevas al dispositivo.
-\tabitem Dejar que pasen 24 horas.</t>
-  </si>
-  <si>
     <t>\tabitem Utilizar el dispositivo luego de su baño en resina, una vez que está endurecido y fuera del molde.
 \tabitem Utilizar un elemento de medición con precisión igual o mejor que 0.1mm.
 \tabitem Medir ancho, alto y profundidad del dispositivo con su recubrimiento, sin contar los conectores expuestos de medición y alimentación externa.</t>
@@ -301,19 +289,6 @@
     <t>\tabitem Utilizar el dispositivo luego de su baño en resina, una vez que está endurecido y fuera del molde.
 \tabitem Utilizar el programa que hace parpadear el LED interno.
 \tabitem Sumergir el dispositivo en un contenedor con agua salada a una temperatura igual o menor a 3°C por al menos una hora.
-\tabitem Retirar el dispositivo.
-\tabitem Comprobar el estado del LED interno.
-\tabitem Comunicarse con el dispositivo.</t>
-  </si>
-  <si>
-    <t>\tabitem Utilizar el dispositivo luego de su baño en resina, una vez que está endurecido y fuera del molde.
-\tabitem Utilizar el programa que hace parpadear el LED interno.
-\tabitem Sumergir el dispositivo en una cámara de presión capaz de generar un mínimo de 10bar de presión.
-\tabitem Llenar la cámara de presión con agua salada.
-\tabitem Utilizar un manómetro con presición igual o mejor que 0.1bar
-\tabitem Sellar la cámara.
-\tabitem Elevar la presión hasta 10bar en menos de 10 segundos y mantenerla durante una hora.
-\tabitem Despresurizar la cámara en menos de 10 segundos.
 \tabitem Retirar el dispositivo.
 \tabitem Comprobar el estado del LED interno.
 \tabitem Comunicarse con el dispositivo.</t>
@@ -461,6 +436,31 @@
     <t>T-INT-MEC-01
 T-INT-MEC-02
 T-INT-MEC-03</t>
+  </si>
+  <si>
+    <t>\tabitem Cargar el programa de adquisición de datos en tiempo acelerado.
+\tabitem El programa simula la adquisición de datos de 60 días en 25 días.
+\tabitem Conectar dos pilas nuevas al dispositivo.
+\tabitem Dejar que pasen 25 días.</t>
+  </si>
+  <si>
+    <t>El dispositivo sigue energizado luego de la prueba y el LED sigue parpadeando.</t>
+  </si>
+  <si>
+    <t>La corriente de entrada durante el guardado de datos no supera 1mA.</t>
+  </si>
+  <si>
+    <t>\tabitem Utilizar el dispositivo luego de su baño en resina, una vez que está endurecido y fuera del molde.
+\tabitem Utilizar el programa que hace parpadear el LED interno.
+\tabitem Sumergir el dispositivo en una cámara de presión capaz de generar un mínimo de 10bar de presión.
+\tabitem Llenar la cámara de presión con agua salada.
+\tabitem Utilizar un manómetro con presición igual o mejor que 0.5bar
+\tabitem Sellar la cámara.
+\tabitem Elevar la presión hasta 10bar en menos de 10 segundos y mantenerla durante una hora.
+\tabitem Despresurizar la cámara en menos de 10 segundos.
+\tabitem Retirar el dispositivo.
+\tabitem Comprobar el estado del LED interno.
+\tabitem Comunicarse con el dispositivo.</t>
   </si>
 </sst>
 </file>
@@ -615,6 +615,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -634,9 +637,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -926,7 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAD9908-3DB8-46A4-94BE-5CD81246CF66}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D17" sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
@@ -962,7 +962,7 @@
       <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -976,7 +976,7 @@
       <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -985,10 +985,10 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -997,8 +997,8 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1007,8 +1007,8 @@
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1017,10 +1017,10 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="18"/>
+      <c r="C7" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1029,8 +1029,8 @@
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1039,20 +1039,20 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1078,7 +1078,7 @@
       <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1101,10 +1101,10 @@
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1115,8 +1115,8 @@
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1125,20 +1125,20 @@
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       <c r="C18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1164,7 +1164,7 @@
       <c r="C19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1205,15 +1205,15 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>46</v>
@@ -1221,10 +1221,10 @@
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>47</v>
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,15 +1258,15 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>49</v>
@@ -1274,10 +1274,10 @@
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>50</v>
@@ -1285,10 +1285,10 @@
     </row>
     <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>51</v>
@@ -1296,10 +1296,10 @@
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>52</v>
@@ -1307,35 +1307,35 @@
     </row>
     <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1366,18 +1366,18 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D352AE-9B29-452D-8E0E-2F5494852E5F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,62 +1438,62 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1527,40 +1527,40 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
